--- a/Python/Excels/Result0.xlsx
+++ b/Python/Excels/Result0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,11 @@
           <t>Время локальных максимумов процесса</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Постоянная времени</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -495,6 +500,9 @@
       </c>
       <c r="I2" t="n">
         <v>0.006928</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000736</v>
       </c>
     </row>
     <row r="3">
